--- a/Repositories.xlsx
+++ b/Repositories.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sakshi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5164729-B62A-4B5D-9B90-8F8BB86DB4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312955BE-58D0-488C-A883-F25608A6F759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E6E55E2B-F7FA-47D1-A365-F8B7797EC554}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{E6E55E2B-F7FA-47D1-A365-F8B7797EC554}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
   <si>
     <t>S. No.</t>
   </si>
@@ -228,13 +229,399 @@
     <t xml:space="preserve">Git URL
 git clone 
 git branch: 'main', url: </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Recommended Tool/Tech</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <r>
+      <t>Node.js (NestJS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Django (Python)</t>
+    </r>
+  </si>
+  <si>
+    <t>NestJS for TypeScript + structure, Django for Python simplicity</t>
+  </si>
+  <si>
+    <t>Build Tool</t>
+  </si>
+  <si>
+    <r>
+      <t>TurboRepo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (monorepo) or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (frontend)</t>
+    </r>
+  </si>
+  <si>
+    <t>Turbo for monorepo workflows; Vite for frontend speed</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <r>
+      <t>GitHub Actions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GitLab CI</t>
+    </r>
+  </si>
+  <si>
+    <t>Easy integration with repo and cloud</t>
+  </si>
+  <si>
+    <t>Cloud Platform</t>
+  </si>
+  <si>
+    <r>
+      <t>AWS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Google Cloud (GCP)</t>
+    </r>
+  </si>
+  <si>
+    <t>AWS has broader services, GCP is developer-friendly</t>
+  </si>
+  <si>
+    <t>Containerization</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Still the standard</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Scalable, relational, and cloud-optimized</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <r>
+      <t>Next.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (React) or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nuxt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Vue 3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Full-stack rendering, SEO, API routes</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <r>
+      <t>Vercel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (frontend) + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS/GCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (backend)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vercel is seamless with Next.js; backend on ECS/Lambda</t>
+  </si>
+  <si>
+    <t>Infra as Code (IaC)</t>
+  </si>
+  <si>
+    <r>
+      <t>Terraform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pulumi</t>
+    </r>
+  </si>
+  <si>
+    <t>Terraform is cloud-agnostic, Pulumi uses real code</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <r>
+      <t>Prometheus + Grafana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datadog</t>
+    </r>
+  </si>
+  <si>
+    <t>Prometheus for open-source, Datadog for all-in-one</t>
+  </si>
+  <si>
+    <t>Orchestration</t>
+  </si>
+  <si>
+    <r>
+      <t>Kubernetes (EKS/GKE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Docker Swarm</t>
+    </r>
+  </si>
+  <si>
+    <t>K8s is standard for scaling; ECS on AWS is a simpler path</t>
+  </si>
+  <si>
+    <t>Pipeline (DevOps)</t>
+  </si>
+  <si>
+    <r>
+      <t>Argo CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jenkins X</t>
+    </r>
+  </si>
+  <si>
+    <t>GitOps approach with ArgoCD is trending</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>Git (GitHub or GitLab)</t>
+  </si>
+  <si>
+    <t>GitHub is more universal and supports Codespace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +633,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -293,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -306,6 +701,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3A07F2-21F1-49F6-A9D6-8C04021376D6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1377,4 +1781,220 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E3E551-DF65-4978-A0FE-0B4F11B34803}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>